--- a/target/classes/inputs.xlsx
+++ b/target/classes/inputs.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4258" uniqueCount="1161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4288" uniqueCount="1191">
   <si>
     <t>email</t>
   </si>
@@ -3517,6 +3517,96 @@
   </si>
   <si>
     <t>test_10_26Mar19_1526101553594170713@frescano.se</t>
+  </si>
+  <si>
+    <t>test_1_26Mar19_1534361553594676950@frescano.se</t>
+  </si>
+  <si>
+    <t>test_2_26Mar19_1534371553594677705@frescano.se</t>
+  </si>
+  <si>
+    <t>test_3_26Mar19_1534381553594678045@frescano.se</t>
+  </si>
+  <si>
+    <t>test_4_26Mar19_1534381553594678383@frescano.se</t>
+  </si>
+  <si>
+    <t>test_5_26Mar19_1534381553594678680@frescano.se</t>
+  </si>
+  <si>
+    <t>test_6_26Mar19_1534391553594679025@frescano.se</t>
+  </si>
+  <si>
+    <t>test_7_26Mar19_1534391553594679284@frescano.se</t>
+  </si>
+  <si>
+    <t>test_8_26Mar19_1534391553594679506@frescano.se</t>
+  </si>
+  <si>
+    <t>test_9_26Mar19_1534391553594679729@frescano.se</t>
+  </si>
+  <si>
+    <t>test_10_26Mar19_1534391553594679957@frescano.se</t>
+  </si>
+  <si>
+    <t>test_1_30Mar19_1956431553956003219@frescano.se</t>
+  </si>
+  <si>
+    <t>test_2_30Mar19_1956441553956004331@frescano.se</t>
+  </si>
+  <si>
+    <t>test_3_30Mar19_1956441553956004770@frescano.se</t>
+  </si>
+  <si>
+    <t>test_4_30Mar19_1956451553956005198@frescano.se</t>
+  </si>
+  <si>
+    <t>test_5_30Mar19_1956451553956005611@frescano.se</t>
+  </si>
+  <si>
+    <t>test_6_30Mar19_1956461553956006163@frescano.se</t>
+  </si>
+  <si>
+    <t>test_7_30Mar19_1956461553956006530@frescano.se</t>
+  </si>
+  <si>
+    <t>test_8_30Mar19_1956471553956007042@frescano.se</t>
+  </si>
+  <si>
+    <t>test_9_30Mar19_1956471553956007350@frescano.se</t>
+  </si>
+  <si>
+    <t>test_10_30Mar19_1956471553956007641@frescano.se</t>
+  </si>
+  <si>
+    <t>test_1_30Mar19_1958171553956097872@frescano.se</t>
+  </si>
+  <si>
+    <t>test_2_30Mar19_1958181553956098582@frescano.se</t>
+  </si>
+  <si>
+    <t>test_3_30Mar19_1958191553956099082@frescano.se</t>
+  </si>
+  <si>
+    <t>test_4_30Mar19_1958191553956099460@frescano.se</t>
+  </si>
+  <si>
+    <t>test_5_30Mar19_1958191553956099904@frescano.se</t>
+  </si>
+  <si>
+    <t>test_6_30Mar19_1958201553956100249@frescano.se</t>
+  </si>
+  <si>
+    <t>test_7_30Mar19_1958201553956100700@frescano.se</t>
+  </si>
+  <si>
+    <t>test_8_30Mar19_1958201553956100977@frescano.se</t>
+  </si>
+  <si>
+    <t>test_9_30Mar19_1958211553956101257@frescano.se</t>
+  </si>
+  <si>
+    <t>test_10_30Mar19_1958211553956101495@frescano.se</t>
   </si>
 </sst>
 </file>
@@ -6624,7 +6714,7 @@
         <v>603</v>
       </c>
       <c r="C2" t="s">
-        <v>1151</v>
+        <v>1181</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -6659,7 +6749,7 @@
         <v>478</v>
       </c>
       <c r="C3" t="s">
-        <v>1152</v>
+        <v>1182</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -6694,7 +6784,7 @@
         <v>758</v>
       </c>
       <c r="C4" t="s">
-        <v>1153</v>
+        <v>1183</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -6729,7 +6819,7 @@
         <v>759</v>
       </c>
       <c r="C5" t="s">
-        <v>1154</v>
+        <v>1184</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -6764,7 +6854,7 @@
         <v>760</v>
       </c>
       <c r="C6" t="s">
-        <v>1155</v>
+        <v>1185</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -6799,7 +6889,7 @@
         <v>603</v>
       </c>
       <c r="C7" t="s">
-        <v>1156</v>
+        <v>1186</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -6834,7 +6924,7 @@
         <v>478</v>
       </c>
       <c r="C8" t="s">
-        <v>1157</v>
+        <v>1187</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -6869,7 +6959,7 @@
         <v>758</v>
       </c>
       <c r="C9" t="s">
-        <v>1158</v>
+        <v>1188</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
@@ -6904,7 +6994,7 @@
         <v>759</v>
       </c>
       <c r="C10" t="s">
-        <v>1159</v>
+        <v>1189</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
@@ -6939,7 +7029,7 @@
         <v>760</v>
       </c>
       <c r="C11" t="s">
-        <v>1160</v>
+        <v>1190</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
